--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2316.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2316.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4.308306864720501</v>
+        <v>0.9997698664665222</v>
       </c>
       <c r="B1">
-        <v>2.148937511550049</v>
+        <v>1.80894935131073</v>
       </c>
       <c r="C1">
-        <v>1.447873887505985</v>
+        <v>1.916611790657043</v>
       </c>
       <c r="D1">
-        <v>1.276804969012875</v>
+        <v>2.009451150894165</v>
       </c>
       <c r="E1">
-        <v>1.26871053864466</v>
+        <v>1.393824934959412</v>
       </c>
     </row>
   </sheetData>
